--- a/magnifier/hu/Screen Magnifier 2.0 Венгрия_hun.xlsx
+++ b/magnifier/hu/Screen Magnifier 2.0 Венгрия_hun.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -44,14 +44,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>2020.</t>
-    </r>
+    <t>2020</t>
   </si>
   <si>
     <r>
@@ -450,14 +443,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Oleg, 25 éves</t>
-    </r>
+    <t>Zoltán, 25 éves</t>
   </si>
   <si>
     <r>
@@ -490,14 +476,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Olga, 22 éves</t>
-    </r>
+    <t>Ivett, 22 éves</t>
   </si>
   <si>
     <r>
@@ -530,14 +509,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>Anasztászia, 45 éves</t>
-    </r>
+    <t>Szilvia, 45 éves</t>
   </si>
   <si>
     <r>
@@ -647,16 +619,6 @@
         <sz val="12.0"/>
       </rPr>
       <t>ÚJDONSÁG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>2020.</t>
     </r>
   </si>
   <si>
@@ -1443,7 +1405,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1653,7 +1615,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1673,7 +1635,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1693,7 +1655,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1753,13 +1715,13 @@
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
+      <c r="A66" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -1769,17 +1731,17 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -1789,62 +1751,62 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1869,7 +1831,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1894,7 +1856,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1919,7 +1881,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1944,12 +1906,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -4708,27 +4670,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
